--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -408,7 +480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -452,11 +524,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -482,8 +572,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -480,7 +552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -542,11 +614,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -584,8 +674,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,150 +254,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -552,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -596,47 +452,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -662,32 +482,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,474 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -408,7 +876,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -452,11 +920,128 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -482,8 +1067,86 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="104" fillId="0" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
